--- a/biology/Zoologie/Conophis/Conophis.xlsx
+++ b/biology/Zoologie/Conophis/Conophis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conophis est un genre de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conophis est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trois espèces de ce genre se rencontrent au Mexique et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois espèces de ce genre se rencontrent au Mexique et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2014) :
 Conophis lineatus (Duméril, Bibron &amp; Duméril, 1854)
 Conophis morai Perez-Higareda, Lopez-Luna &amp; Smith, 2002
 Conophis vittatus Peters, 1860</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Peters, 1860 : Drei neue Schlangen des k. zoologischen Museums aus America und Bemerkungen über die generelle Unterscheidung von anderen bereits bekannten Arten. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1860, p. 517-521 (texte intégral).</t>
         </is>
